--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_02.14.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_02.14.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07634E86-6C32-F347-93B5-C7C6AE85B9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72208C47-EC33-0040-9A5D-41B7D830CF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="19580" windowHeight="19640" xr2:uid="{5EC711FD-29FB-E046-A8C8-B789A9DE105B}"/>
+    <workbookView xWindow="18180" yWindow="460" windowWidth="19580" windowHeight="19640" xr2:uid="{5EC711FD-29FB-E046-A8C8-B789A9DE105B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="17">
   <si>
     <t>rnaDate</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>NEBNextPoly(A)E7490</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>random</t>
@@ -474,7 +471,7 @@
   <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,7 +526,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -538,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -550,18 +547,18 @@
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -570,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -582,18 +579,18 @@
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -602,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -614,18 +611,18 @@
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -634,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -646,18 +643,18 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -666,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -678,18 +675,18 @@
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -698,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -710,18 +707,18 @@
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -730,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -742,18 +739,18 @@
         <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -762,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -774,18 +771,18 @@
         <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -794,7 +791,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -806,18 +803,18 @@
         <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -826,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -838,18 +835,18 @@
         <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -858,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -870,18 +867,18 @@
         <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -890,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -902,18 +899,18 @@
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -922,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -934,18 +931,18 @@
         <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -954,7 +951,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -966,18 +963,18 @@
         <v>11</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -986,7 +983,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -998,18 +995,18 @@
         <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -1018,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -1030,18 +1027,18 @@
         <v>11</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1050,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -1062,18 +1059,18 @@
         <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -1082,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
@@ -1094,18 +1091,18 @@
         <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -1114,7 +1111,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -1126,18 +1123,18 @@
         <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -1146,7 +1143,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>10</v>
@@ -1158,18 +1155,18 @@
         <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -1178,7 +1175,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -1190,18 +1187,18 @@
         <v>11</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -1210,7 +1207,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
@@ -1222,18 +1219,18 @@
         <v>11</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -1242,7 +1239,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -1254,18 +1251,18 @@
         <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
@@ -1274,7 +1271,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1286,18 +1283,18 @@
         <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
@@ -1306,7 +1303,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -1318,18 +1315,18 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
@@ -1338,7 +1335,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -1350,18 +1347,18 @@
         <v>11</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
@@ -1370,7 +1367,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
@@ -1382,18 +1379,18 @@
         <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
@@ -1402,7 +1399,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
@@ -1414,18 +1411,18 @@
         <v>11</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
@@ -1434,7 +1431,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1446,18 +1443,18 @@
         <v>11</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
@@ -1466,7 +1463,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
@@ -1478,18 +1475,18 @@
         <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
@@ -1498,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
@@ -1510,18 +1507,18 @@
         <v>11</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
@@ -1530,7 +1527,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -1542,18 +1539,18 @@
         <v>11</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
@@ -1562,7 +1559,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
@@ -1574,18 +1571,18 @@
         <v>11</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
@@ -1594,7 +1591,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>10</v>
@@ -1606,18 +1603,18 @@
         <v>11</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
@@ -1626,7 +1623,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>10</v>
@@ -1638,18 +1635,18 @@
         <v>11</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
@@ -1658,7 +1655,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>10</v>
@@ -1670,18 +1667,18 @@
         <v>11</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
@@ -1690,7 +1687,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>10</v>
@@ -1702,18 +1699,18 @@
         <v>11</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
@@ -1722,7 +1719,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>
@@ -1734,18 +1731,18 @@
         <v>11</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -1754,7 +1751,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>10</v>
@@ -1766,18 +1763,18 @@
         <v>11</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
@@ -1786,7 +1783,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>10</v>
@@ -1798,13 +1795,13 @@
         <v>11</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_02.14.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_02.14.20.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -61,10 +61,10 @@
     <t xml:space="preserve">02.14.20</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -207,8 +207,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_02.14.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_02.14.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAA24EF-0BD8-E544-AD28-6934778AE5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB65CFB5-D1B2-9F44-BA9A-0F841D47350A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7040" yWindow="540" windowWidth="14980" windowHeight="19740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="16">
   <si>
     <t>rnaDate</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>random</t>
-  </si>
-  <si>
-    <t>02.13.20</t>
   </si>
 </sst>
 </file>
@@ -480,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,48 +573,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9">
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>12</v>
@@ -626,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="9">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
@@ -641,16 +639,17 @@
       <c r="J4" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>12</v>
@@ -659,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="9">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
@@ -674,16 +673,17 @@
       <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>12</v>
@@ -692,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="9">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>13</v>
@@ -707,16 +707,17 @@
       <c r="J6" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
@@ -725,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="9">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>13</v>
@@ -740,16 +741,17 @@
       <c r="J7" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>12</v>
@@ -758,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="9">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -773,16 +775,17 @@
       <c r="J8" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>12</v>
@@ -791,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="9">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>13</v>
@@ -806,16 +809,17 @@
       <c r="J9" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>12</v>
@@ -824,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="9">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>13</v>
@@ -839,16 +843,17 @@
       <c r="J10" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>12</v>
@@ -857,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="9">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>13</v>
@@ -875,13 +880,13 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>12</v>
@@ -890,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>13</v>
@@ -908,13 +913,13 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>12</v>
@@ -923,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>13</v>
@@ -941,13 +946,13 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>12</v>
@@ -956,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="9">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>13</v>
@@ -974,13 +979,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>12</v>
@@ -989,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="9">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -1007,47 +1012,47 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="9">
+        <v>36</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="6" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
         <v>16</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5">
-        <v>5</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="9">
-        <v>15</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5">
-        <v>6</v>
-      </c>
       <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>13</v>
@@ -1071,15 +1076,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>12</v>
@@ -1088,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>13</v>
@@ -1104,15 +1109,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>12</v>
@@ -1121,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -1137,15 +1142,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>12</v>
@@ -1154,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="9">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -1170,724 +1175,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5">
-        <v>10</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="9">
-        <v>20</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="11">
-        <v>21</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="9">
-        <v>22</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5">
-        <v>4</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="9">
-        <v>23</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="5">
-        <v>5</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="9">
-        <v>24</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="5">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="9">
-        <v>25</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="5">
-        <v>21</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="9">
-        <v>26</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="5">
-        <v>22</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="9">
-        <v>27</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="5">
-        <v>7</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="9">
-        <v>28</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="5">
-        <v>8</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="9">
-        <v>29</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="5">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="9">
-        <v>30</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="5">
-        <v>10</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="9">
-        <v>31</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="5">
-        <v>11</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="9">
-        <v>32</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="5">
-        <v>12</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="9">
-        <v>33</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="5">
-        <v>13</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="9">
-        <v>34</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5">
-        <v>14</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="9">
-        <v>35</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="5">
-        <v>15</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="9">
-        <v>36</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="5">
-        <v>16</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="9">
-        <v>37</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="5">
-        <v>17</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="9">
-        <v>38</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="5">
-        <v>18</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="9">
-        <v>39</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="5">
-        <v>19</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="9">
-        <v>40</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C43" s="5"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
